--- a/Support/COO_Too.xlsx
+++ b/Support/COO_Too.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="22035" windowHeight="11820" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="22035" windowHeight="11820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="80">
   <si>
     <t>x</t>
   </si>
@@ -214,6 +214,48 @@
   </si>
   <si>
     <t>Other.countries</t>
+  </si>
+  <si>
+    <t>$coo.2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            1235             1235             1235             1235             1235             1235             1235 </t>
+  </si>
+  <si>
+    <t>$coo.2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                  1235                                                   1235 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                       </t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Other.countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic.of.Ireland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
   </si>
 </sst>
 </file>
@@ -547,7 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D61" sqref="A53:D61"/>
     </sheetView>
   </sheetViews>
@@ -1400,7 +1442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1491,12 +1533,160 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3">
+        <v>2001</v>
+      </c>
+      <c r="O3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>1235</v>
+      </c>
+      <c r="M6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="M7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="M9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>1235</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>